--- a/biology/Zoologie/Evenus_satyroides/Evenus_satyroides.xlsx
+++ b/biology/Zoologie/Evenus_satyroides/Evenus_satyroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus satyroides est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus satyroides a été décrit par William Chapman Hewitson en 1865, sous le nom initial de Thecla satyroides.
-Synonymes: Thecla arachne Goodson, 1945; Thecla aganippe Goodson, 1945; Macusia satyroides, Brown &amp; Mielke, 1967[1].
-Noms vernaculaires
-Evenus satyroides se nomme Satyr Hairstreak  Hairstreak en anglais[2].
+Synonymes: Thecla arachne Goodson, 1945; Thecla aganippe Goodson, 1945; Macusia satyroides, Brown &amp; Mielke, 1967.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evenus satyroides se nomme Satyr Hairstreak  Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evenus_satyroides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evenus_satyroides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus satyroides est un petit papillon aux antennes et aux pattes annelées de blanc, avec deux fines et longues queues à chaque aile postérieure.
 Le dessus du mâle est bleu bordé de noir.
@@ -554,36 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Evenus_satyroides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Evenus_satyroides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evenus satyroides est présent au Brésil et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evenus satyroides est présent au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Evenus_satyroides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evenus_satyroides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Evenus satyroides, sur Wikimedia CommonsEvenus satyroides, sur Wikispecies
 </t>
